--- a/SGCM/ENTREGABLES/Configuración/Matiz de Pruebas Configuración Usuarios.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matiz de Pruebas Configuración Usuarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SGCM\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SGCM\ENTREGABLES\Configuración\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -283,12 +283,6 @@
     <t xml:space="preserve"> Engloba las acciones del usuario usara  en la plataforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Financiamiento y Obligaciones </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédito Simple Corto Plazo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Editar  </t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t xml:space="preserve">Pantalla Principal </t>
   </si>
   <si>
-    <t xml:space="preserve">Falta título, Acentos en algunos campos de header, alineación de la tabla, sustituir la palabra celura por "Teléfono Móvil" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Visualización Pagina Principal "Usuarios" </t>
   </si>
   <si>
@@ -450,9 +441,6 @@
     <t xml:space="preserve">Direcciona a la pantalla Solicitudes </t>
   </si>
   <si>
-    <t xml:space="preserve">Direcciona al apartado "Solicitudes" </t>
-  </si>
-  <si>
     <t xml:space="preserve">Filtrado </t>
   </si>
   <si>
@@ -478,6 +466,15 @@
   </si>
   <si>
     <t xml:space="preserve">Direcciona hacia la izquierda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltips descriptivos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direcciona al apartado "Ver Solicitudes" </t>
+  </si>
+  <si>
+    <t>Configuración Usuarios Agregar tooltip descriptivo en el Botón menú, Botón notificaciones si tiene tooltip descriptivo. ¿Esta sección llevara algún título? Pantalla configuraciones ACENTO TIPOS DE COMISIÓN Definir Tipos de Comisiones o Tipo de Comisión</t>
   </si>
 </sst>
 </file>
@@ -5364,13 +5361,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1714057</xdr:colOff>
+          <xdr:colOff>1704532</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>246764</xdr:colOff>
+          <xdr:colOff>180089</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -5411,13 +5408,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1714057</xdr:colOff>
+          <xdr:colOff>1704532</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>246764</xdr:colOff>
+          <xdr:colOff>180089</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -12013,7 +12010,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12036,7 +12033,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12111,7 +12108,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -12173,10 +12170,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>42</v>
@@ -12185,16 +12182,16 @@
         <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="21"/>
       <c r="M7" s="22"/>
@@ -12207,7 +12204,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
@@ -12217,16 +12214,16 @@
         <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="1">
@@ -12238,10 +12235,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -12250,16 +12247,16 @@
         <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1">
@@ -12370,10 +12367,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
@@ -12382,30 +12379,30 @@
         <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N13" s="1">
         <v>45076</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -12414,16 +12411,16 @@
         <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="1">
@@ -12435,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -12447,16 +12444,16 @@
         <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="1">
@@ -12468,10 +12465,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
@@ -12480,16 +12477,16 @@
         <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="1">
@@ -12501,10 +12498,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -12513,16 +12510,16 @@
         <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="1">
@@ -12534,10 +12531,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -12546,16 +12543,16 @@
         <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="1">
@@ -12567,10 +12564,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
@@ -12579,16 +12576,16 @@
         <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="7"/>
       <c r="M19" s="7"/>
@@ -12601,10 +12598,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
@@ -12613,16 +12610,16 @@
         <v>41</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="7"/>
@@ -12635,10 +12632,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
@@ -12647,16 +12644,16 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="1">
@@ -12668,10 +12665,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -12680,16 +12677,16 @@
         <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="1">
@@ -12701,10 +12698,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -12713,16 +12710,16 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="1">
@@ -12734,10 +12731,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
@@ -12746,13 +12743,13 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="1">
@@ -12764,10 +12761,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>42</v>
@@ -12776,29 +12773,31 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25"/>
       <c r="I25" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="1">
         <v>45076</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
@@ -12807,13 +12806,16 @@
         <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="1">
@@ -12825,10 +12827,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -12837,16 +12839,16 @@
         <v>41</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="1">
@@ -13951,18 +13953,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId5" name="Control 18">
+        <control shapeId="3088" r:id="rId5" name="Control 16">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -13971,23 +13973,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3090" r:id="rId5" name="Control 18"/>
+        <control shapeId="3088" r:id="rId5" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId7" name="Control 16">
+        <control shapeId="3090" r:id="rId7" name="Control 18">
           <controlPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1714500</xdr:colOff>
+                <xdr:colOff>1704975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -13996,7 +13998,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3088" r:id="rId7" name="Control 16"/>
+        <control shapeId="3090" r:id="rId7" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14172,7 +14174,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -14183,7 +14185,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14194,7 +14196,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -14202,7 +14204,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>

--- a/SGCM/ENTREGABLES/Configuración/Matiz de Pruebas Configuración Usuarios.xlsx
+++ b/SGCM/ENTREGABLES/Configuración/Matiz de Pruebas Configuración Usuarios.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -406,20 +406,6 @@
     <t>Se dirige al apartado correctamente</t>
   </si>
   <si>
-    <t>Acentos 
-Ente Publico /Ente Público
-Correo Electronico / Correo Electrónico
-Telefono / Teléfono 
-Celular / Teléfono Móvil 
-Municipio o Delegacion / Municipio o Delegación 
-Extension / Extensión, ugiero cambia el color del botón Cancelar a color dorado como se muestra en los demás módulos y usar letras  minúsculas. 
-Botón Crear Usuario cambiar color a negro y usar minúsculas como en el ejemplo.  Sugiero poner o agregar permisos ya que hice un usuario con datos erróneos y me permitió crearlo. 
-Correo Electrónico: pide uno y agregue tres mismo correo
-Cargo: copie y pegue un texto extenso 
-Correo Alternativo:  también se agregaron tres y solo pide uno. 
-Comentario: tiene algún rango de palabras por que también se copio in texto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confirmación Usuarios </t>
   </si>
   <si>
@@ -436,9 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ver Solicitud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direcciona a la pantalla Solicitudes </t>
   </si>
   <si>
     <t xml:space="preserve">Filtrado </t>
@@ -475,6 +458,63 @@
   </si>
   <si>
     <t>Configuración Usuarios Agregar tooltip descriptivo en el Botón menú, Botón notificaciones si tiene tooltip descriptivo. ¿Esta sección llevara algún título? Pantalla configuraciones ACENTO TIPOS DE COMISIÓN Definir Tipos de Comisiones o Tipo de Comisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srpu.atlassian.net/browse/SGCM-82 </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-85  https://srpu.atlassian.net/browse/SGCM-86 https://srpu.atlassian.net/browse/SGCM-87   / https://srpu.atlassian.net/browse/SGCM-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srpu.atlassian.net/browse/SGCM-97 </t>
+  </si>
+  <si>
+    <t>Acentos,   Apartado Municipio Población .El color de sombreado esta muy tenue no se alcanza a visualizar muy bien. Definir si ira de color gris, blanco o dorado.
+Ente Publico /Ente Público
+Correo Electronico / Correo Electrónico
+Telefono / Teléfono 
+Celular / Teléfono Móvil 
+Municipio o Delegacion / Municipio o Delegación 
+Extension / Extensión, ugiero cambia el color del botón Cancelar a color dorado como se muestra en los demás módulos y usar letras  minúsculas. 
+Botón Crear Usuario cambiar color a negro y usar minúsculas como en el ejemplo.  Sugiero poner o agregar permisos ya que hice un usuario con datos erróneos y me permitió crearlo. 
+Correo Electrónico: pide uno y agregue tres mismo correo
+Cargo: copie y pegue un texto extenso 
+Correo Alternativo:  también se agregaron tres y solo pide uno. 
+Comentario: tiene algún rango de palabras por que también se copio in texto.</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-98</t>
+  </si>
+  <si>
+    <t>Direcciona a la pantalla Solicitudes  Ver solicitudes
+Título en la pagina principal de "Ver Solicitudes
+Filtrado
+Acento
+Modificacion / Modificación
+Pagina 13
+Ente Publico /Ente Público
+Correo Electronico / Correo Electrónico
+Telefono / Teléfono
+Celular / Teléfono Móvil
+Fecha de Creacion / Fecha de Creación
+Extension / Extensión</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-99</t>
+  </si>
+  <si>
+    <t>Botón Comentarios
+Acento
+Fecha de Creacion / Fecha de Creación
+Botón Cerrar Diferente estilo no viene en recuadro.
+Tiene algún rango de el uso de las palabras usadas
+en comentarios ?</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-100</t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-101</t>
   </si>
 </sst>
 </file>
@@ -5361,13 +5401,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1704532</xdr:colOff>
+          <xdr:colOff>1695007</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>180089</xdr:colOff>
+          <xdr:colOff>113414</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -5408,13 +5448,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1704532</xdr:colOff>
+          <xdr:colOff>1695007</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>180089</xdr:colOff>
+          <xdr:colOff>113414</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200911</xdr:rowOff>
         </xdr:to>
@@ -12010,7 +12050,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12417,12 +12457,23 @@
         <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="J14" s="2">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="N14" s="1">
         <v>45076</v>
       </c>
@@ -12616,13 +12667,23 @@
         <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="J20" s="7">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="N20" s="1">
         <v>45076</v>
       </c>
@@ -12644,23 +12705,34 @@
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="7"/>
+      <c r="J21" s="7">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="N21" s="1">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="297" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -12677,18 +12749,29 @@
         <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="J22" s="7">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="N22" s="1">
         <v>45076</v>
       </c>
@@ -12710,23 +12793,23 @@
         <v>41</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="1">
         <v>45076</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -12743,15 +12826,29 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M24" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="J24" s="7">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="N24" s="1">
         <v>45076</v>
       </c>
@@ -12773,18 +12870,29 @@
         <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="J25" s="7">
+        <v>87</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="N25" s="1">
         <v>45076</v>
       </c>
@@ -12806,18 +12914,29 @@
         <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M26" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="J26" s="7">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="N26" s="1">
         <v>45076</v>
       </c>
@@ -12850,9 +12969,17 @@
       <c r="I27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="N27" s="1">
-        <v>45076</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -13945,51 +14072,28 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="M14" r:id="rId2"/>
+    <hyperlink ref="M21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId5" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="3090" r:id="rId7" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1704975</xdr:colOff>
+                <xdr:colOff>1695450</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3088" r:id="rId5" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId7" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1704975</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>200025</xdr:rowOff>
               </to>
@@ -14001,9 +14105,34 @@
         <control shapeId="3090" r:id="rId7" name="Control 18"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3088" r:id="rId9" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1695450</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>200025</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3088" r:id="rId9" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </controls>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
